--- a/src/main/resources/static/temp.xlsx
+++ b/src/main/resources/static/temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14900" activeTab="1"/>
+    <workbookView windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>填写说明：</t>
   </si>
@@ -338,14 +338,79 @@
     <t>{.IDorLink}</t>
   </si>
   <si>
-    <t>发布内容主题或大纲</t>
-  </si>
-  <si>
-    <t>例如，星图报价：
-=KOL发布费+5%平台费用</t>
+    <t>{.fansCount}</t>
+  </si>
+  <si>
+    <t>{.accountType}</t>
+  </si>
+  <si>
+    <t>{.address}</t>
+  </si>
+  <si>
+    <t>{.count}</t>
+  </si>
+  <si>
+    <t>{.postStartTime}至{.postEndTime}</t>
+  </si>
+  <si>
+    <t>{.at}</t>
+  </si>
+  <si>
+    <t>{.topic}</t>
+  </si>
+  <si>
+    <t>{.linkPrice}</t>
+  </si>
+  <si>
+    <t>{.shareAuth}</t>
+  </si>
+  <si>
+    <t>{.storeAuth}</t>
+  </si>
+  <si>
+    <t>{.msgAuth}</t>
+  </si>
+  <si>
+    <t>{.star}</t>
+  </si>
+  <si>
+    <t>{.face}</t>
+  </si>
+  <si>
+    <t>{.other}</t>
+  </si>
+  <si>
+    <t>{.product}</t>
+  </si>
+  <si>
+    <t>{.brief}</t>
+  </si>
+  <si>
+    <t>{.img}</t>
+  </si>
+  <si>
+    <t>{.imgTime}</t>
+  </si>
+  <si>
+    <t>{.platPrice}</t>
+  </si>
+  <si>
+    <t>{.sale}</t>
+  </si>
+  <si>
+    <t>{.price}</t>
+  </si>
+  <si>
+    <t>{.commission}</t>
+  </si>
+  <si>
+    <t>{.remark}</t>
   </si>
   <si>
     <t>发布总金额</t>
+  </si>
+  <si>
+    <t>{total}</t>
   </si>
   <si>
     <t>甲方：（蒙牛开票抬头）</t>
@@ -497,10 +562,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -555,7 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,13 +634,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -584,15 +642,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +659,22 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -622,22 +697,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,30 +757,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,27 +770,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -739,19 +804,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,181 +918,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,21 +1139,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1120,6 +1170,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1128,103 +1202,94 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,81 +1298,81 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1340,9 +1405,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1352,35 +1414,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1388,17 +1444,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1424,7 +1477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1451,8 +1504,8 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 11" xfId="2"/>
+    <cellStyle name="常规 11" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -1783,55 +1836,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" ht="76.5" customHeight="1" spans="2:11">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="2:11">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="51"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1842,7 +1895,7 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="41" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1851,125 +1904,125 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="46"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="46"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="46"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="46"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="46"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="46"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="46"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="46"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="46"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="46"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="46"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="46"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="46"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="47"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="43"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
@@ -2034,46 +2087,46 @@
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="46"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="46"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="46"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="46"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="46"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="47"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,55 +2135,55 @@
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="48"/>
-      <c r="C41" s="48" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="45"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2157,10 +2210,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:AB28"/>
+  <dimension ref="A2:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10576923076923" defaultRowHeight="15.6"/>
@@ -2323,16 +2376,16 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="27" t="s">
+      <c r="U10" s="22"/>
+      <c r="V10" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="32"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="29"/>
     </row>
     <row r="11" ht="28.5" customHeight="1" spans="1:28">
       <c r="A11" s="13" t="s">
@@ -2362,55 +2415,55 @@
       <c r="I11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="T11" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="V11" s="29" t="s">
+      <c r="V11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="W11" s="29" t="s">
+      <c r="W11" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="X11" s="29" t="s">
+      <c r="X11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="Y11" s="29" t="s">
+      <c r="Y11" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="Z11" s="33" t="s">
+      <c r="Z11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="AA11" s="15" t="s">
@@ -2433,288 +2486,176 @@
       <c r="D12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24" t="s">
+      <c r="E12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="14"/>
-    </row>
-    <row r="13" ht="161.25" customHeight="1" spans="1:28">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24" t="s">
+      <c r="F12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" ht="159.75" customHeight="1" spans="1:28">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" ht="169.05" customHeight="1" spans="1:28">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" ht="153" customHeight="1" spans="1:28">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" ht="150.75" customHeight="1" spans="1:28">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" ht="175.95" customHeight="1" spans="1:28">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="31" t="s">
+      <c r="G12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="44.55" customHeight="1" spans="1:28">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="36">
-        <f>SUM(Z13:Z18)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="38"/>
-    </row>
-    <row r="22" spans="6:20">
-      <c r="F22" s="7" t="s">
+      <c r="H12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="I12" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="6:25">
-      <c r="F25" s="7" t="s">
+      <c r="J12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T25" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y25" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="25:25">
-      <c r="Y28" s="8" t="s">
-        <v>105</v>
+      <c r="K12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="V12" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z12" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA12" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" ht="175.95" customHeight="1" spans="1:28">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="34"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="44.55" customHeight="1" spans="1:28">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+    </row>
+    <row r="17" spans="6:20">
+      <c r="F17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="25:25">
+      <c r="Y19" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="6:20">
+      <c r="F20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="25:25">
+      <c r="Y22" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="11">
+  <mergeCells count="4">
     <mergeCell ref="A2:AB2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A10:U10"/>
     <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2738,61 +2679,61 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
@@ -2800,10 +2741,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F5" s="1"/>
       <c r="H5" s="4"/>
@@ -2811,10 +2752,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2824,10 +2765,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2839,10 +2780,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2854,10 +2795,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2869,7 +2810,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2881,7 +2822,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2889,12 +2830,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2905,7 +2846,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2916,7 +2857,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2928,132 +2869,132 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
